--- a/reporte_retrasos.xlsx
+++ b/reporte_retrasos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="17" customWidth="1" min="6" max="6"/>
+    <col width="19" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -481,7 +481,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -506,6 +506,151 @@
       </c>
       <c r="G2" t="n">
         <v>8142365974</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>10/28/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>VERDE</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ANGEL PORTALES</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>8146597752</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>10/29/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>AZUL</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>IVETTE PEREZ</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8145796648</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>11/01/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Antonio Garcia</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>8117539072</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11/05/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>LISSET DE LA CRUZ</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>8145958874</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11/08/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="n">
+        <v>29</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ROSA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alberto Cano</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8120688543</v>
       </c>
     </row>
   </sheetData>
